--- a/data/xlsx/win10_en.xlsx
+++ b/data/xlsx/win10_en.xlsx
@@ -21,7 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="222">
+  <si>
+    <t>div_class</t>
+  </si>
+  <si>
+    <t>col-sm-12</t>
+  </si>
   <si>
     <t>header1</t>
   </si>
@@ -29,37 +35,39 @@
     <t>Startup Workshop for your Laptop, Hiroshima University</t>
   </si>
   <si>
+    <t>templete</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10</t>
   </si>
   <si>
-    <t>templete</t>
-  </si>
-  <si>
-    <t>index</t>
+    <t>&lt;h3&gt;Windows10&lt;/h3&gt;</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
-Apr. 2019&lt;br&gt;
+    <t xml:space="preserve">Apr. 2019&lt;br&gt;
  Information Media Center, Hiroshima University&lt;br&gt;
  Hiroshima Univesity Coop shop 
  </t>
   </si>
   <si>
-    <t>col-sm-12</t>
-  </si>
-  <si>
     <t xml:space="preserve">You are going to prepare your PC for your study life at Hiroshima University during this lecture. Here is the list of what you are going to do today.
 &lt;ol&gt; &lt;/ol&gt;
   </t>
   </si>
   <si>
-    <t>div_class</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
   </si>
   <si>
     <t>col-sm-4 col-md-6</t>
@@ -68,19 +76,13 @@
     <t>初期設定</t>
   </si>
   <si>
+    <t>img_class</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
     <t>FRESTA-TEXT-2018 Win10 chap.0</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
-  </si>
-  <si>
-    <t>img_class</t>
-  </si>
-  <si>
-    <t>chart</t>
   </si>
   <si>
     <t xml:space="preserve">Surfaceの電源を初めて入れて、デスクトップ画面が表示されるまでの設定内容について説明します。一番重要なのは、普段利用するユーザ名とパスワードを作成するところ。あとは概ね言われるままにしていけば大丈夫です。
@@ -88,87 +90,116 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">[1] Windowsで使用する言語を選びます。「日本語」をクリックしてください。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] Windows10に入っている、助手役アプリの「コルタナ」が自己紹介をします。以降コルタナの音声ガイドがあるのですがちょっと五月蝿いので画面右下のサウンドアイコンをクリックして黙ってもらいましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] 現在いる地域を選びます。日本ですね。これは、時間帯などを設定するための情報として使われます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] キーボードについての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-04.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] Windows のソフトウェア・ライセンス条項が表示されます。
+    <t xml:space="preserve">Windowsで使用する言語を選びます。「日本語」をクリックしてください。
+  </t>
+  </si>
+  <si>
+    <t>chartn</t>
+  </si>
+  <si>
+    <t>win10-0-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows10に入っている、助手役アプリの「コルタナ」が自己紹介をします。以降コルタナの音声ガイドがあるのですがちょっと五月蝿いので画面右下のサウンドアイコンをクリックして黙ってもらいましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">現在いる地域を選びます。日本ですね。これは、時間帯などを設定するための情報として使われます。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キーボードについての質問に答えます。追加のレイアウトはないので、「スキップ」としましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows のソフトウェア・ライセンス条項が表示されます。
 ここには、みなさんがどういう条件でWindows を利用できるかということが細かく書かれています。内容を確認して「同意する」をクリックしてください。
 ※ この内容は、「設定」→「システム」→「バージョン情報」の画面で「マイクロソフトライセンス条項を読む」をクリックすると、いつでも読めます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-05.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[6] ネットワークに接続するための画面がでます。あとで設定しますので、ここでは「今はスキップ」をクリックし、何もせずに飛ばします。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-06.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7] PCを使うときのユーザ名を記入します。自分で使いやすいものをきめてください。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-05.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネットワークに接続するための画面がでます。あとで設定しますので、ここでは「今はスキップ」をクリックし、何もせずに飛ばします。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-06.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCを使うときのユーザ名を記入します。自分で使いやすいものをきめてください。
 「ユーザ名」は、&amp;quot;ayase&amp;quot; など名前をローマ字にしたものが一般的です。日本語も使えますが、そうするとたまに動かないソフトがあるので注意が必要です。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-07.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8] 「パスワード」は、十分に複雑な（でも、ちゃんと覚えていられて忘れないもの）を付けましょう。ユーザ名と同じものとか &amp;quot;333&amp;quot; とかすぐに類推できてしまうようなものを付けてはいけません。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-07.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「パスワード」は、十分に複雑な（でも、ちゃんと覚えていられて忘れないもの）を付けましょう。ユーザ名と同じものとか &amp;quot;333&amp;quot; とかすぐに類推できてしまうようなものを付けてはいけません。
 ここで決めたパスワードを忘れると、相当面倒なことになりますので慎重に！
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-08.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9] 「パスワードのヒント」を入力するように促されます。これは、パスワードを忘れてしまった時に、そのヒントとなるような文言を入れておく機能です。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-08.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「パスワードのヒント」を入力するように促されます。これは、パスワードを忘れてしまった時に、そのヒントとなるような文言を入れておく機能です。
 思い出すのに役にたつかもしれませんが、　このPCに触れる人なら誰でもこのヒントが見られてしまいますので、あなたのパスワードが漏れる危険性を大きくするものです。あまり良い機能ではありません。
 何か記入をしないと次に進めないので、適当に無意味な文字列を入れておきましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-09.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10] 顔認証は結構面白くて便利ですが、設定に少し時間かかりますので今はスキップしておきましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-10.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] コルタナの利用も、今の所は「いいえ」としておきます。後から使うように変更できます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-11.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[12] 「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-09.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">顔認証は結構面白くて便利ですが、設定に少し時間かかりますので今はスキップしておきましょう。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-10.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コルタナの利用も、今の所は「いいえ」としておきます。後から使うように変更できます。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-11.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「デバイスのプライバシー設定の選択」では、あなたのプライバシー情報がMicrosoftのサーバなどに送られる可能性がある機能のオン／オフを設定します。
 本来は、利便性とプライバシーを比較して各個人で決定するものです。
 Microsoftは全部をオンにすることを勧めていますが、下側の三つは利用者にとってそれほどメリットがあるものではないので、オフにしておいたら良いでしょう。
 「同意」をクリックします。これで設定項目は終了です。しばらく待ちましょう。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-12.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[13] 数分待つと、Windows10のデスクトップ画面が出てきます。
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-0-13.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-0-12.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数分待つと、Windows10のデスクトップ画面が出てきます。
+  </t>
+  </si>
+  <si>
+    <t>win10-0-13.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Know your PC&amp;apos;s basic spec, such as type of CPU, type of your Windows10, storage capacity of your PC. </t>
   </si>
   <si>
     <t>Know your PC's spec</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10en chap.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Know your PC&amp;apos;s basic spec, such as type of CPU, type of your Windows10, storage capacity of your PC. </t>
   </si>
   <si>
     <t xml:space="preserve">First of all, you will learn how to know your PC&amp;apos;s &amp;quot;spec&amp;quot;. Sometimes the word &amp;quot;spec&amp;quot; indicates some features which tell you the capability of your PC. Here, find these specs in the list below;
@@ -180,48 +211,56 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">[1] Check OS version of your PC, first. Right-click the Start button on the lower left of your desktop.
+    <t xml:space="preserve">Check OS version of your PC, first. Right-click the Start button on the lower left of your desktop.
 &lt;p class="spl"&gt;* &amp;quot;Right-click&amp;quot; means to press right-hand button on a computer mouse. Then, how to accomplish right-click in the case of Surface without a mouse? Tap the lower right corner of the touch pad. Or tap the screen little longer. Or press the side button of the pen and tap the screen.&lt;/p&gt;
 When Start menu appears, find &amp;quot;System&amp;quot; in the menu and click it.
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-1-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] Look carefully at &amp;quot;About&amp;quot; page.
+   </t>
+  </si>
+  <si>
+    <t>win10-1-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look carefully at &amp;quot;About&amp;quot; page.
 &amp;quot;Edition&amp;quot; entry under &amp;quot;Windows Specifications&amp;quot; tells you what kind of Windows your PC is running. In this case, your PC is running &amp;quot;Windows 10 Pro&amp;quot;. And &amp;quot;Version&amp;quot; entry gives you the detailed version number of your Windows10.&lt;span class="check"&gt;check-1&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 &amp;quot;System type&amp;quot; entry under &amp;quot;Device Specifications&amp;quot; tells you that your PC is running &amp;quot;64-bit operating system&amp;quot;. It means your OS can handle 64-binary-digit data.&lt;span class="check"&gt;check-2&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 &amp;quot;Installed RAM&amp;quot; entry tells you the capacity of the main memory in your PC. The larger the size of RAM your PC have, the more data your PC can store or the greater multi-tasking ability your PC gets.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-1-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] Next, Check HDD/SDD capacity of your PC. Read and write speed of HDD, Hard Disk Drive, or SSD, Solid State Drive are not as fast as those of RAM. But their capacity is larger than that of RAM. And they can keep data after shutting down your PC.
+  </t>
+  </si>
+  <si>
+    <t>win10-1-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next, Check HDD/SDD capacity of your PC. Read and write speed of HDD, Hard Disk Drive, or SSD, Solid State Drive are not as fast as those of RAM. But their capacity is larger than that of RAM. And they can keep data after shutting down your PC.
 Click the File Explorer icon in the taskbar. Then click &amp;quot;This PC&amp;quot; in the left side of the window, 
 HDD/SSD capacity will be displayed with the label &amp;quot;Local Disk (C:)&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-1-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] Check the battery run time, here.
+  </t>
+  </si>
+  <si>
+    <t>win10-1-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the battery run time, here.
  Click the battery icon in the taskbar, the battery level and estimated remaining time will be shown. The remaining battery time charged at 100% can be the estimated run time of your battery.
  For example, in the case that it says the battery level is 80% and the remaining time will be 6 hours, your can estimate the run time of your battery as 7.5 hours because 6 devided by 0.8 is 7.5.) &lt;span class="check"&gt;check-3&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 &lt;div class="spl"&gt;* You can find the remaining time on a while after system startup and the system usage has become stable. 
 If you do not see it after trying a few times, check the specifications in the catalog etc. and fill it out.
  &lt;/div&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-1-04.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-1-04.svg</t>
+  </si>
+  <si>
+    <t>Update your Windows10 and install Microsoft Office or other required programs.</t>
   </si>
   <si>
     <t>Install required programs</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10en chap.2</t>
-  </si>
-  <si>
-    <t>Update your Windows10 and install Microsoft Office or other required programs.</t>
   </si>
   <si>
     <t xml:space="preserve">Copy the installation files in numbered USB flash drive to your PC. Here, you will install Microsoft Office and Google Chrome on your PC.
@@ -235,8 +274,10 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;Before starting this chapter&lt;/h2&gt;
-In this chapter, we will describe your works assuming that you have a USB stick that was handed in the workshop.
+    <t>&lt;h2&gt;Before starting this chapter&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this chapter, we will describe your works assuming that you have a USB stick that was handed in the workshop.
 In the case that you did not take the workshop, please choose from following two options:
 &lt;ol&gt;&lt;li&gt;Borrowing a USB stick at Information Media Center Counter, and following the instructions on this chapter.&lt;/li&gt;
 &lt;li&gt;Downloading programs, the contents of USB stick, from Web site directly, installing them, and proceeding to the next chapter. * Please follow the instructions on the following sites. If you are asked ID and password, please input HIRODAI ID (student ID) and HIRODAI password (printed on a paper handed with your ID card)
@@ -250,78 +291,103 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;
-Copy the files in the USB flash drive to your PC&lt;/h2&gt;
-[1] Insert the USB flash drive into a USB port on your PC. If your PC recognizes the flash drive, it will make a sound.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] When the message about FIRST LEC appears on the lower right of the desktop, click it.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] Choose &amp;quot;Open folder to view files&amp;quot; in &amp;quot;FIRST LEC (D:)&amp;quot; window.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] When &amp;quot;FIRST LEC (D:)&amp;quot; window appears, drag and drop &amp;quot;setup2019-win10en&amp;quot; folder to your desktop.
+    <t>&lt;h2&gt;&lt;a name="copy"&gt;&lt;/a&gt;Copy the files in the USB flash drive to your PC&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert the USB flash drive into a USB port on your PC. If your PC recognizes the flash drive, it will make a sound.
+  </t>
+  </si>
+  <si>
+    <t>win10-2-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the message about FIRST LEC appears on the lower right of the desktop, click it.
+  </t>
+  </si>
+  <si>
+    <t>win10-2-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose &amp;quot;Open folder to view files&amp;quot; in &amp;quot;FIRST LEC (D:)&amp;quot; window.
+  </t>
+  </si>
+  <si>
+    <t>win10-2-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When &amp;quot;FIRST LEC (D:)&amp;quot; window appears, drag and drop &amp;quot;setup2019-win10en&amp;quot; folder to your desktop.
 * Here is other way to copy the folder; choose it, press &amp;quot;Ctrl&amp;quot; key and c, click the desktop, and press &amp;quot;Ctrl&amp;quot; key and v.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-04.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] When you have finished the copy, you need to eject the USB flash drive from your PC. Right-click &amp;quot;FIRST LEC (D:)&amp;quot; on the left side of &amp;quot;FIRST LEC (D:)&amp;quot; window and click &amp;quot;Eject&amp;quot; in the list.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-05.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;
-Install Microsoft Office&lt;/h2&gt;
-If Office2016 has already been installed on your PC, you can skip this section and &lt;a href="#chrome"&gt;proceed to step [10]&lt;/a&gt;
+  </t>
+  </si>
+  <si>
+    <t>win10-2-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you have finished the copy, you need to eject the USB flash drive from your PC. Right-click &amp;quot;FIRST LEC (D:)&amp;quot; on the left side of &amp;quot;FIRST LEC (D:)&amp;quot; window and click &amp;quot;Eject&amp;quot; in the list.
+  </t>
+  </si>
+  <si>
+    <t>win10-2-05.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Install Microsoft Office&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Office2016 has already been installed on your PC, you can skip this section and &lt;a href="#chrome"&gt;proceed to step [10]&lt;/a&gt;
 . If you have Office2013 in your PC, you may install Office2016 on your PC.
-[6] Double-click the copied &amp;quot;setup2019-win10en&amp;quot; folder on your desktop to open it. Then double-click the &amp;quot;office2016win-en&amp;quot; in the &amp;quot;windows-en&amp;quot; window. When you find the &amp;quot;install&amp;quot; item in the folder, double-click to start the installation.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-06.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7] In order to install software, the installation program needs to create files in the area which PC user may not access for the general use. Therefore, OS asks you if you really allow the installation. Here, click &amp;quot;Yes&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-07.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8] The window says, &amp;quot;We&amp;apos;ll be done in just a moment.&amp;quot; But...
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-2-08.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9] When you see the window in the picture, the installation has been completed. Click &amp;quot;Close&amp;quot; to proceed the next step.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-2-09.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;
-Install Google Chrome&lt;/h2&gt;
-[10] Double-click &amp;quot;ChromeStandaloneSetup64&amp;quot; in the copied &amp;quot;windows-en&amp;quot; folder on your desktop. When you are asked to allow the app to make changes to your PC, click &amp;quot;Yes&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-10.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] The installation will be completed in a minute!
+Double-click the copied &amp;quot;setup2019-win10en&amp;quot; folder on your desktop to open it. Then double-click the &amp;quot;office2016win-en&amp;quot; in the &amp;quot;windows-en&amp;quot; window. When you find the &amp;quot;install&amp;quot; item in the folder, double-click to start the installation.
+  </t>
+  </si>
+  <si>
+    <t>win10-2-06.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to install software, the installation program needs to create files in the area which PC user may not access for the general use. Therefore, OS asks you if you really allow the installation. Here, click &amp;quot;Yes&amp;quot;.
+  </t>
+  </si>
+  <si>
+    <t>win10-2-07.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The window says, &amp;quot;We&amp;apos;ll be done in just a moment.&amp;quot; But...
+  </t>
+  </si>
+  <si>
+    <t>win10-2-08.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you see the window in the picture, the installation has been completed. Click &amp;quot;Close&amp;quot; to proceed the next step.
+  </t>
+  </si>
+  <si>
+    <t>win10-2-09.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="chrome"&gt;&lt;/a&gt;Install Google Chrome&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double-click &amp;quot;ChromeStandaloneSetup64&amp;quot; in the copied &amp;quot;windows-en&amp;quot; folder on your desktop. When you are asked to allow the app to make changes to your PC, click &amp;quot;Yes&amp;quot;.
+  </t>
+  </si>
+  <si>
+    <t>win10-2-10.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The installation will be completed in a minute!
 &lt;p class="spl"&gt;* You may realize that Microsoft Edge, as the default browser, has already been in Windows 10. But there are some web pages which cannot be displayed successfully by Microsoft Edge. In that case, you can use Google Chrome as the secondary browser.&lt;/p&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-2-11.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-2-11.svg</t>
+  </si>
+  <si>
+    <t>Set up your PC to connect to HINET Wi-Fi.</t>
   </si>
   <si>
     <t>Connect your PC to campus network</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10en chap.3</t>
-  </si>
-  <si>
-    <t>Set up your PC to connect to HINET Wi-Fi.</t>
   </si>
   <si>
     <t xml:space="preserve">You can connect to Wi-Fi called &amp;quot;HINET Wi-Fi&amp;quot; in shared facilities in Hiroshima University campus. Here you will set up your PC to connect to the internal network and the internet via Wi-Fi. As far as you connect to the same access point, you do not need to do this again.
@@ -332,47 +398,61 @@
 One of them is called HIRODAI ID, which looks same to student number. The other is &amp;quot;IMC account&amp;quot;, which looks little bit different from student number. The first letter of student number is capital, whereas that of &amp;quot;IMC account&amp;quot; is in lowercase.
 Both IDs share password. It is called &amp;quot;HIRODAI password&amp;quot;. You will know it when you get your ID card.
 Adding &amp;quot;@hiroshima-u.ac.jp&amp;quot; behind your &amp;quot;IMC account&amp;quot;, you will get your email address as a student in Hiroshima University. The email address is called &amp;quot;HIRODAI mail address&amp;quot;. Teachers or staffs in Hiroshima University may send emails to the email address. Check your email box frequently. You will learn how to check it in Chapter 5.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-4-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Here, you will set up your PC to connect to &amp;quot;HINET Wi-Fi&amp;quot;.
+  </t>
+  </si>
+  <si>
+    <t>win10-4-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, you will set up your PC to connect to &amp;quot;HINET Wi-Fi&amp;quot;.
 Find Wi-Fi icon on the lower right area of the desktop. When Wi-Fi is disabled, the icon looks like &lt;img height="30px" src="image/win10-wifi-indicator_3.png" /&gt;. Click the icon, click Wi-Fi button to turn on Wi-Fi. 
 The appearance of the Wi-Fi icon is changed to &lt;img height="30px" src="image/win10-wifi-indicator_1.png" /&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] Now you can see the list of Wi-Fi AP (access points) which your PC can detect. Choose Wi-Fi AP named like &amp;quot;HU-CUPxx&amp;quot;. Here, each x represents a number. The two-digit number is different from the area in the campus. For examples, you will find &amp;quot;HU-CUP30&amp;quot; near School of Integrated Arts and Sciences, &amp;quot;HU-CUP40&amp;quot; in Kasumi campus, or &amp;quot;HU-CUP50&amp;quot; in Higashisneda campus.
+  </t>
+  </si>
+  <si>
+    <t>win10-4-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you can see the list of Wi-Fi AP (access points) which your PC can detect. Choose Wi-Fi AP named like &amp;quot;HU-CUPxx&amp;quot;. Here, each x represents a number. The two-digit number is different from the area in the campus. For examples, you will find &amp;quot;HU-CUP30&amp;quot; near School of Integrated Arts and Sciences, &amp;quot;HU-CUP40&amp;quot; in Kasumi campus, or &amp;quot;HU-CUP50&amp;quot; in Higashisneda campus.
 &lt;p class="spl"&gt;&amp;amp;ast; If your PC could not detect Wi-Fi AP named &amp;quot;HU-CUPxx&amp;quot; in classroom, it possiblly does not meet system requirement, it should support 5GHz Wi-Fi. Please contact IMC staff.&lt;/p&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] Click &amp;quot;Connect&amp;quot;. 
+  </t>
+  </si>
+  <si>
+    <t>win10-4-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Connect&amp;quot;. 
 If you check the box for &amp;quot;Connect automatically&amp;quot;, your PC will connect to the chosen Wi-Fi AP automatically next time.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-04.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4]Input your &amp;quot;IMC account&amp;quot; in the upper box and its &amp;quot;HIRODAI password&amp;quot; in the lower one. 
+  </t>
+  </si>
+  <si>
+    <t>win10-4-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;IMC account&amp;quot; in the upper box and its &amp;quot;HIRODAI password&amp;quot; in the lower one. 
 &lt;p class="spl"&gt;* &amp;quot;IMC account&amp;quot; is similar to student number but its first letter is in lowercaser.&lt;/p&gt;
 &lt;p class="spl"&gt;* When you need to type capital letter, press &amp;quot;Shift&amp;quot; key and letter key at the same time.&lt;/p&gt;
 Click &amp;quot;OK&amp;quot;
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-05.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] When you are asked to continue connecting, click &amp;quot;Connect&amp;quot;. 
+   </t>
+  </si>
+  <si>
+    <t>win10-4-05.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you are asked to continue connecting, click &amp;quot;Connect&amp;quot;. 
 When your PC has successfully connected to the Wi-Fi, you will see the word &amp;quot;Connected&amp;quot; under the name of the Wi-Fi. &lt;span class="check"&gt;check-4&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
-  &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-4-06.svg" /&gt;  </t>
+   </t>
+  </si>
+  <si>
+    <t>win10-4-06.svg</t>
   </si>
   <si>
     <t xml:space="preserve">This map shows which &amp;quot;HU-CUPxx&amp;quot; you may find in the campus.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-4-07.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-4-07.svg</t>
   </si>
   <si>
     <t>panel panel-warning</t>
@@ -392,17 +472,19 @@
  * You need to do it for every &amp;quot;HU-CUPxx&amp;quot;. &lt;/li&gt;
 &lt;li&gt;When unconnected &amp;quot;HU-CUPxx&amp;quot; appears in the list again, set up Wi-Fi connection again &lt;/li&gt;
 &lt;/ol&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-4-10.png" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-4-10.png</t>
+  </si>
+  <si>
+    <t>Set up Windows Update so that your Windows10 will keep updated. And set up anti-virus software, Microsoft Defender, to be updated automatically.</t>
   </si>
   <si>
     <t>Automatic update and software setup</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10en chap.4</t>
-  </si>
-  <si>
-    <t>Set up Windows Update so that your Windows10 will keep updated. And set up anti-virus software, Microsoft Defender, to be updated automatically.</t>
   </si>
   <si>
     <t xml:space="preserve">Here, you will set up Windows Update which keeps your Wndows10 and Office updated. And, as the preparation of using Office, you will activate it by signing in with &amp;quot;HIRODAI mail address&amp;quot;. You will do it here, as well.
@@ -417,110 +499,143 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;
-Set up Windows Update&lt;/h2&gt;
-[1] Click the Start button on the lower left of your desktop.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] Click cog icon in the Start menu.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] Click “Update &amp;amp; Security”.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] &amp;quot;Windows Update&amp;quot; window appears. Windows OS and Microsoft Defender will be updated automatically and periodically. 
+    <t>&lt;h2&gt;&lt;a name="windows_update"&gt;&lt;/a&gt;Set up Windows Update&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Start button on the lower left of your desktop.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click cog icon in the Start menu.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click “Update &amp;amp; Security”.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;quot;Windows Update&amp;quot; window appears. Windows OS and Microsoft Defender will be updated automatically and periodically. 
 You will know update status of your system. &lt;span class="check"&gt;check-5&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 Now turn on Automatic Updates in Windows Update. Click &amp;quot;Advanced options&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-04.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] Check the box for &amp;quot;Give me updates for other Microsoft products when I update Windows.&amp;quot; Click the arrow displayed on the upper left corner of the window to return to &amp;quot;Windows Update&amp;quot; window.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-05.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="defender"&gt;&lt;/a&gt;
-Microsoft Defender -manual update and a full scan-&lt;/h2&gt;
-[6] You will learn when your Defender is updated and how to update Defender. Defender is kept updated by Windows Update. But when the information about emergency vulnerabilities is issued, it is better for us to update Defender.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the box for &amp;quot;Give me updates for other Microsoft products when I update Windows.&amp;quot; Click the arrow displayed on the upper left corner of the window to return to &amp;quot;Windows Update&amp;quot; window.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-05.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="defender"&gt;&lt;/a&gt;Microsoft Defender -manual update and a full scan-&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will learn when your Defender is updated and how to update Defender. Defender is kept updated by Windows Update. But when the information about emergency vulnerabilities is issued, it is better for us to update Defender.
 Click &amp;quot;Windows Security&amp;quot; listed in the left. Then click &amp;quot;Open Windows Defender Security Center&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-06.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7] Click &amp;quot;Virus &amp;amp; threat protection&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-07.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8] &amp;quot;Threats&amp;quot; in Defender indicate computer viruses, spyware, or other malware. And &amp;quot;threat definition&amp;quot; is the file that contains the rule to distinguish those &amp;quot;threats&amp;quot; from other programs.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-06.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Virus &amp;amp; threat protection&amp;quot;.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-07.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;quot;Threats&amp;quot; in Defender indicate computer viruses, spyware, or other malware. And &amp;quot;threat definition&amp;quot; is the file that contains the rule to distinguish those &amp;quot;threats&amp;quot; from other programs.
 The information on &amp;quot;threat definition&amp;quot; is displayed on the middle of the window.&lt;span class="check"&gt;check-6,7&lt;/span&gt;
 In order to update &amp;quot;threat definition&amp;quot;, click &amp;quot;Protection updates&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-08.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9] When you click &amp;quot;Check for updates&amp;quot; button, Defender checks if there is the most recent &amp;quot;threat definition&amp;quot;. If so, &amp;quot;threat definition&amp;quot; will be updated. Usually, updates are checked automatically and you do not need to press the button.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-08.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you click &amp;quot;Check for updates&amp;quot; button, Defender checks if there is the most recent &amp;quot;threat definition&amp;quot;. If so, &amp;quot;threat definition&amp;quot; will be updated. Usually, updates are checked automatically and you do not need to press the button.
 Click the arrow displayed on the upper left corner of the window to return to &amp;quot;Virus &amp;amp; threat protection&amp;quot; window.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-09.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10] Now you will learn how to scan your whole PC for viruses. It will take a long time. So do not do it during this workshop.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-09.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now you will learn how to scan your whole PC for viruses. It will take a long time. So do not do it during this workshop.
 The way of scanning whole computer system is called &amp;quot;Full Scan&amp;quot;. There is another called &amp;quot;Quick Scan&amp;quot;. It scans limited parts of the computer system because they are likely to be attacked. Therefore, &amp;quot;Quick Scan&amp;quot; runs quickly.
 In order to run a full scan, click &amp;quot;Advanced scans&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-10.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] You can see three advanced scans. Choose &amp;quot;Full scan&amp;quot; and click &amp;quot;Scan now&amp;quot; button to run a full scan.&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
+  </t>
+  </si>
+  <si>
+    <t>win10-5-10.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can see three advanced scans. Choose &amp;quot;Full scan&amp;quot; and click &amp;quot;Scan now&amp;quot; button to run a full scan.&lt;span class="check"&gt;check-8&lt;span&gt;&lt;/span&gt;
 &lt;/span&gt;
 But it will take a long time. Do not run a full scan during this workshop. But do it at the earliest opportunity after this workshop and fill out the checklist.
 Click X on the upper right corner of the window to close it.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-11.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;
-Office activation&lt;/h2&gt;
-[12] Here, you will activate Office2016. With this activation, you can verify the license and start to use the software.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-11.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="office"&gt;&lt;/a&gt;Office activation&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, you will activate Office2016. With this activation, you can verify the license and start to use the software.
 In order to activate Office, You need to open one of the products in Office2016. Here, let us open Exacel2016.
 Click the Start button and find &amp;quot;Excel2016&amp;quot; in the list. Then click &amp;quot;Excel2016&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-12.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[13] Click &amp;quot;Accept&amp;quot;.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-12.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Accept&amp;quot;.
 * This act means that you agree to the Microsoft Office License Agreement.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-13.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[14] In order to tell Office2016 that you are a rightful user, you need to verify that you are a student in Hiroshima University.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-13.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to tell Office2016 that you are a rightful user, you need to verify that you are a student in Hiroshima University.
 Click &amp;quot;Sign in to get the most out of Office&amp;quot;. When &amp;quot;Sign in&amp;quot; window appears, input &amp;quot;HIRODAI mail address&amp;quot;, which is like b19xxxxx@hiroshima-u.ac.jp, and click &amp;quot;Next&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-14.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15] &amp;quot;HIROSHIMA UNIVERSITY&amp;quot; window appears. Type &amp;quot;HIRODAI password&amp;quot; in the lower box and click &amp;quot;Sign in&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-5-15.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-5-14.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;quot;HIROSHIMA UNIVERSITY&amp;quot; window appears. Type &amp;quot;HIRODAI password&amp;quot; in the lower box and click &amp;quot;Sign in&amp;quot;.
+  </t>
+  </si>
+  <si>
+    <t>win10-5-15.svg</t>
+  </si>
+  <si>
+    <t>Office365, MOMIJI, Bb9, and others…</t>
   </si>
   <si>
     <t>Log in to the online services provided in Hiroshima University</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2019 Win10en chap.5</t>
-  </si>
-  <si>
-    <t>Office365, MOMIJI, Bb9, and others…</t>
   </si>
   <si>
     <t xml:space="preserve">Let us log in to the online services provided by university, such as MOMIJI, Office365, or Bb9.
@@ -540,123 +655,154 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;
-MOMIJI: Student portal&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] Various information for Hiroshima University students are collected into student portal, MOMIJI.
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="momiji"&gt;&lt;/a&gt;MOMIJI: Student portal&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various information for Hiroshima University students are collected into student portal, MOMIJI.
 Type &amp;quot;momiji hiroshima university&amp;quot; in the search box, find &amp;quot;MOMIJI Hiroshima Univ. もみじ-広島大学&amp;quot;, and click the link.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-01.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2] MOMIJI top page will be displayed. You can get useful information there.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-01.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOMIJI top page will be displayed. You can get useful information there.
 You can see many banners on the right of the page. In this chapter, we will explain &amp;quot;Web Mail&amp;quot;, &amp;quot;My MOMIJI&amp;quot; and &amp;quot;Bb9&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-02.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;
-Office365: Web mail service and online storage&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3] Click &amp;quot;Web Mail&amp;quot; banner, first.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-03.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4] Click &amp;quot;Office 365 portal&amp;quot; (Office365ポータル).
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-04.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5] Input your &amp;quot;HIRODAI mail&amp;quot; in the upper box and &amp;quot;HIRODAI password&amp;quot; in the lower one. And Click &amp;quot;サインイン&amp;quot;, it means &amp;quot;Sign in&amp;quot;, blue button.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-05.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[6] Office 365 applications are listed. Click &amp;quot;Outlook&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-27.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7] For your first time login, you will be asked to choose language and time zone. You may choose UTC+9 as time zone.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart flame" src="image/win10-6-06.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8] Web Mail page will be open. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-10&lt;/span&gt;
+  </t>
+  </si>
+  <si>
+    <t>win10-6-02.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mail"&gt;&lt;/a&gt;Office365: Web mail service and online storage&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Web Mail&amp;quot; banner, first.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-03.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Office 365 portal&amp;quot; (Office365ポータル).
+  </t>
+  </si>
+  <si>
+    <t>win10-6-04.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;HIRODAI mail&amp;quot; in the upper box and &amp;quot;HIRODAI password&amp;quot; in the lower one. And Click &amp;quot;サインイン&amp;quot;, it means &amp;quot;Sign in&amp;quot;, blue button.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-05.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office 365 applications are listed. Click &amp;quot;Outlook&amp;quot;.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-27.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For your first time login, you will be asked to choose language and time zone. You may choose UTC+9 as time zone.
+  </t>
+  </si>
+  <si>
+    <t>chart flame</t>
+  </si>
+  <si>
+    <t>win10-6-06.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Mail page will be open. You may read HIRODAI Mails here. Since the university sends messages to your HIRODAI Mail, check the mail box frequently. &lt;span class="check"&gt;check-10&lt;/span&gt;
 You can use Outlook app to receive and send your HIRODAI Mails on your smartphone. We recommend it for daily use, as it is easy to use and it also have push notification function.
-&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt; &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-07.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9] Let us move to OneDrive, online storage service in Office365. Click the upper left corner of the window, and the list of applications in Office365 will be shown. Click &amp;quot;OneDrive&amp;quot; in the list.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-08.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10] OneDrive provides you 1 TB of storage. You can keep your backup data here. Or you can access files here even when you are off campus.
+&lt;img alt="*outlook icon*" src="image/win10-outlook-app.png" width="64" /&gt;  </t>
+  </si>
+  <si>
+    <t>win10-6-07.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us move to OneDrive, online storage service in Office365. Click the upper left corner of the window, and the list of applications in Office365 will be shown. Click &amp;quot;OneDrive&amp;quot; in the list.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-08.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OneDrive provides you 1 TB of storage. You can keep your backup data here. Or you can access files here even when you are off campus.
 There is also the OneDrive smartphone app. So you can use this storage on your smartphone.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-09.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;
-My MOMIJI: Class enrollment, bulletin board etc.&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] Input your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot; in each box and click &amp;quot;Login to My MOMIJI (Students)&amp;quot; button.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-10.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[12] Here, you can register courses or view your grades. Notifications from your courses or school will be listed in &amp;quot;Message&amp;quot;.&lt;span class="check"&gt;check-11&lt;/span&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-11.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[13]When you have finished, click &amp;quot;Logout&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-12.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;
-Bb9: Virtual learning environment&lt;/h2&gt;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[14] Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-09.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="mymomiji"&gt;&lt;/a&gt;My MOMIJI: Class enrollment, bulletin board etc.&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot; in each box and click &amp;quot;Login to My MOMIJI (Students)&amp;quot; button.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-10.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, you can register courses or view your grades. Notifications from your courses or school will be listed in &amp;quot;Message&amp;quot;.&lt;span class="check"&gt;check-11&lt;/span&gt;
+  </t>
+  </si>
+  <si>
+    <t>win10-6-11.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you have finished, click &amp;quot;Logout&amp;quot;.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-12.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h2&gt;&lt;a name="bb9"&gt;&lt;/a&gt;Bb9: Virtual learning environment&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let us go back to MOMIJI top page again. This time, click &amp;quot;Bb9&amp;quot; banner.
 Bb9 is the name of learning management system in Hiroshima University. You may view course materials, answer tests, or submit assignments on Bb9.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-13.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15] Click Bb9 banner again.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-14.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[16] Bb9 login page will be displayed.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-13.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Bb9 banner again.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-14.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bb9 login page will be displayed.
 Click the globe icon on the upper left corner of the window and choose &amp;quot;English&amp;quot; to change your language setting on Bb9. 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-28.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[17] When Bb9 login page in English is displayed, log in to Bb9 with your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-15.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[18] For your first login, this page will be shown. Click &amp;quot;Close&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-16.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[19]This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-28.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Bb9 login page in English is displayed, log in to Bb9 with your &amp;quot;HIRODAI ID&amp;quot; and &amp;quot;HIRODAI password&amp;quot;.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-15.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For your first login, this page will be shown. Click &amp;quot;Close&amp;quot;.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-16.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is &amp;quot;myBlackboard&amp;quot; page. There is &amp;quot;Course List&amp;quot; in the middle of the page. Courses, which you can access, are listed there. Some courses in the list are related to the courses you registered. But others are not.
 Several courses should be introduced here.
 &lt;dl&gt;&lt;dt&gt;Introduction to University Education&lt;/dt&gt;
 &lt;dd&gt;This course is required. In this course, you will learn what you need to know to study in Hiroshima University. And you are expected to download course text PDFs and answer a test on a weekly basis.&lt;/dd&gt;
@@ -665,43 +811,56 @@
 &lt;dt&gt;Information Security &amp;amp; Compliance 2019&lt;/dt&gt;
 &lt;dd&gt;In this course, you will learn how to use computer or network safely in Hiroshima University. All members in the university should take this course. You need to take a lecture in a classroom and learn more in this Bb9 course. If you cannot pass &amp;quot;Verification Test2019&amp;quot; and finish &amp;quot;account confirmation&amp;quot; by the end of June, your &amp;quot;IMC account&amp;quot; will be locked and you will not be able to read emails sent to your &amp;quot;HIRODAI mail address&amp;quot;. &lt;/dd&gt;
  &lt;/dl&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-17.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[20] In order to check if you can access your learning materials on Bb9, let&amp;apos;s use &amp;quot;Introduction to University Education&amp;quot; course.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-17.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to check if you can access your learning materials on Bb9, let&amp;apos;s use &amp;quot;Introduction to University Education&amp;quot; course.
 If you are transfer, you don&amp;apos;t have that course. So, use &amp;quot;Information Security and Education&amp;quot; course instead it.
 When you take &amp;quot;Introduction to University Education&amp;quot;, as the mention above, you are expected to download the course text PDFs from Bb9 course beforehand. Here, you will learn how to download course materials from Bb9.
 Click &amp;quot;Introduction to University Education&amp;quot; in the &amp;quot;Course List&amp;quot;.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-18.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[21] Click &amp;quot;Course Materials&amp;quot; in the menu on the left side of the page. Then the course contents of this course will be displayed in the right. There are many folders and each folder attributes to each class. Click &amp;quot;Chapter 1&amp;quot; to open it.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-19.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[22] There are three PDFs in the folder. Click &amp;quot;[Chapter 1] What you learn at Hiroshima University? (School/Program)&amp;quot; to see the content.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-20.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[23] Look at the picture in the right, you can read what PDF contains. However, sometimes you cannot. It depends on the software which you use to read PDFs.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-18.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click &amp;quot;Course Materials&amp;quot; in the menu on the left side of the page. Then the course contents of this course will be displayed in the right. There are many folders and each folder attributes to each class. Click &amp;quot;Chapter 1&amp;quot; to open it.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-19.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are three PDFs in the folder. Click &amp;quot;[Chapter 1] What you learn at Hiroshima University? (School/Program)&amp;quot; to see the content.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-20.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look at the picture in the right, you can read what PDF contains. However, sometimes you cannot. It depends on the software which you use to read PDFs.
 Your visited page history in this course is displayed above the course contents. When you have finished, click &amp;quot;Chapter 1&amp;quot; in your visited page history to return to that page.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-21.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[24] What is the easiest way to download the files on the Bb9 course page? Right-click the file name and choose &amp;quot;Save target as&amp;quot; in the displayed menu.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-21.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the easiest way to download the files on the Bb9 course page? Right-click the file name and choose &amp;quot;Save target as&amp;quot; in the displayed menu.
 Save the text files for chapter 1 and chapter 6. &lt;span class="check"&gt;check-12&lt;/span&gt;
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chart" src="image/win10-6-22.svg" /&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;
-Others&lt;/h2&gt;
-Contents in this section will not be introduced in this lecture. You can read them later.
+  </t>
+  </si>
+  <si>
+    <t>win10-6-22.svg</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;a name="omake"&gt;&lt;/a&gt;Others&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contents in this section will not be introduced in this lecture. You can read them later.
  </t>
   </si>
   <si>
@@ -710,14 +869,18 @@
 At that time you need to pay printing fee with MYple, Co-op&amp;apos;s electronic money put on student ID card. It costs you 3 JPY per sheet in monochrome print, and 12 JPY in color print. So you need to charge your student ID card in advance.
 You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/print/webprint"&gt;IMC web site&lt;/a&gt;
 . It&amp;apos;s Japanese only. Please check Google translation menu at the bottom of right column.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-6-24.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-6-24.svg</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile app
 You can use Bb9 mobiles apps. Search &amp;quot;Blackboard&amp;quot; on iOS App Store or Android Google play.
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/bb9-app.jpg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>bb9-app.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">OneDrive
@@ -725,16 +888,20 @@
 You can get OneDrive apps on OneDrive web site.
 You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/onedriveforbusiness/"&gt;IMC web site&lt;/a&gt;
 . 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-6-25.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-6-25.svg</t>
   </si>
   <si>
     <t xml:space="preserve">VPN
 When you view your grades on MOMIJI or print your works in IMC, you need to connect your PC to campus network. If you are off campus and want to use those services, you can connect your PC to campus network via VPN (Vertual Private Network). See IMC web page which shows how to connect to VPN.
 You can find more information on &lt;a href="https://www.media.hiroshima-u.ac.jp/services/hinet/vpngw"&gt;IMC web site&lt;/a&gt;
 . 
- &lt;/div&gt;
-&lt;div class="col-sm-8 col-md-6"&gt;&lt;img alt="*screenshot*" class="chartn" src="image/win10-6-26.svg" /&gt;  </t>
+  </t>
+  </si>
+  <si>
+    <t>win10-6-26.svg</t>
   </si>
   <si>
     <t>Conclusion</t>
@@ -746,8 +913,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h3&gt;Helpdesk&lt;/h3&gt;
-If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
+    <t>&lt;h3&gt;Helpdesk&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h3&gt;F3S workshop&lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are in trouble when you use your PC, don&amp;apos;t hesitate to make a inquiry to IMC.
 &lt;dl&gt;&lt;dt&gt;At IMC: &lt;/dt&gt;
 &lt;dt&gt; &lt;/dt&gt;
 &lt;dd&gt;IMC main building, IMC west branch in West Library, IMC north branch in Central Library, IMC Kasumi branchi&lt;/dd&gt;
@@ -755,9 +927,7 @@
 &lt;dt&gt; &lt;/dt&gt;
 &lt;dd&gt;&lt;a href="https://www.media.hiroshima-u.ac.jp/helpdesk"&gt;https://www.media.hiroshima-u.ac.jp/helpdesk&lt;/a&gt;
 &lt;/dd&gt;
- &lt;/dl&gt;
-&lt;h3&gt;F3S workshop&lt;/h3&gt;
-For your better PC life, IMC holds F3S, First Three Steps, Workshops. 
+ &lt;/dl&gt;For your better PC life, IMC holds F3S, First Three Steps, Workshops. 
 In the workshop, you may get some useful knowledge or technique to use your PC. Join us if you are interested in the themes. 
 &lt;ul&gt;&lt;li&gt;&lt;a href="https://f3s.riise.hiroshima-u.ac.jp"&gt;https://f3s.riise.hiroshima-u.ac.jp&lt;/a&gt;
  &lt;/li&gt;
@@ -1097,19 +1267,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1117,7 +1288,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1125,39 +1296,52 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1173,245 +1357,246 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1427,119 +1612,120 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1549,237 +1735,258 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1795,189 +2002,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>67</v>
+      <c r="A15" t="s">
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1987,279 +2195,295 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
+      <c r="A22" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2269,531 +2493,557 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
+      <c r="A17" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
+      <c r="A21" t="s">
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
+      <c r="A23" t="s">
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
+      <c r="A24" t="s">
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
+      <c r="A25" t="s">
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
+      <c r="A26" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
+      <c r="A28" t="s">
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
+      <c r="A29" t="s">
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
+      <c r="A30" t="s">
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
+      <c r="A31" t="s">
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
+      <c r="A32" t="s">
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
+      <c r="A33" t="s">
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
+      <c r="A34" t="s">
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
+      <c r="A35" t="s">
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
+      <c r="A36" t="s">
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
+      <c r="A37" t="s">
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
+      <c r="A38" t="s">
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
+      <c r="A39" t="s">
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2803,75 +3053,86 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/win10_en.xlsx
+++ b/data/xlsx/win10_en.xlsx
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="222">
-  <si>
-    <t>div_class</t>
-  </si>
-  <si>
-    <t>col-sm-12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="217">
   <si>
     <t>header1</t>
   </si>
@@ -47,13 +41,11 @@
     <t>FRESTA-TEXT-2019 Win10</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Windows10&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Apr. 2019&lt;br&gt;
+    <t xml:space="preserve">&lt;h3&gt;Windows10&lt;/h3&gt;
+Apr. 2019&lt;br&gt;
  Information Media Center, Hiroshima University&lt;br&gt;
  Hiroshima Univesity Coop shop 
  </t>
@@ -70,16 +62,10 @@
     <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
   </si>
   <si>
-    <t>col-sm-4 col-md-6</t>
-  </si>
-  <si>
     <t>初期設定</t>
   </si>
   <si>
-    <t>img_class</t>
-  </si>
-  <si>
-    <t>chart</t>
+    <t>fresta</t>
   </si>
   <si>
     <t>FRESTA-TEXT-2018 Win10 chap.0</t>
@@ -1267,7 +1253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,45 +1289,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1351,7 +1324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1365,10 +1338,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1376,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1384,219 +1357,211 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1620,10 +1585,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1631,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1639,93 +1604,85 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1749,10 +1706,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1760,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1768,225 +1725,217 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1996,7 +1945,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2010,10 +1959,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2021,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2029,163 +1978,155 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2136,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2209,10 +2150,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2220,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2228,262 +2169,254 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2426,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2507,10 +2440,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2518,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2526,524 +2459,516 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>176</v>
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>183</v>
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="B40" s="1" t="s">
-        <v>206</v>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +2978,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3070,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3078,61 +3003,53 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/win10_en.xlsx
+++ b/data/xlsx/win10_en.xlsx
@@ -29,7 +29,7 @@
     <t>Startup Workshop for your Laptop, Hiroshima University</t>
   </si>
   <si>
-    <t>templete</t>
+    <t>template</t>
   </si>
   <si>
     <t>index</t>

--- a/data/xlsx/win10_en.xlsx
+++ b/data/xlsx/win10_en.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="216">
   <si>
     <t>header1</t>
   </si>
@@ -56,12 +56,6 @@
   </t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">購入したばかりの Windows 10 の電源を入れて、使い始められるようになるまでに必要な設定作業を説明します。 </t>
-  </si>
-  <si>
     <t>初期設定</t>
   </si>
   <si>
@@ -177,6 +171,9 @@
   </si>
   <si>
     <t>win10-0-13.svg</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t xml:space="preserve">Know your PC&amp;apos;s basic spec, such as type of CPU, type of your Windows10, storage capacity of your PC. </t>
@@ -1324,7 +1321,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1338,34 +1335,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1373,13 +1376,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1387,10 +1390,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1404,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1418,7 +1421,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1432,7 +1435,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1446,7 +1449,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -1460,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1474,7 +1477,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
@@ -1488,7 +1491,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -1502,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -1516,7 +1519,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -1530,7 +1533,7 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -1544,24 +1547,10 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1585,10 +1574,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1596,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1604,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1612,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1620,7 +1609,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1634,13 +1623,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1648,13 +1637,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1662,13 +1651,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1676,13 +1665,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1706,10 +1695,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1717,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1725,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1733,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1741,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1752,7 +1741,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1760,7 +1749,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1771,7 +1760,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1779,13 +1768,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1793,13 +1782,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1807,13 +1796,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1821,13 +1810,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1835,18 +1824,18 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1854,13 +1843,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1868,13 +1857,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
         <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1882,13 +1871,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1896,18 +1885,18 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
         <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1915,13 +1904,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1929,13 +1918,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
         <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1959,10 +1948,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1970,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1978,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1986,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1994,7 +1983,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2008,13 +1997,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2022,13 +2011,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2036,13 +2025,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2050,13 +2039,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2064,13 +2053,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2078,13 +2067,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2092,21 +2081,21 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -2120,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2150,10 +2139,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2161,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2169,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2177,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2185,7 +2174,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2196,7 +2185,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2204,13 +2193,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2218,13 +2207,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2232,13 +2221,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2246,13 +2235,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2260,18 +2249,18 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
         <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2279,13 +2268,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>123</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2293,13 +2282,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
         <v>125</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2307,13 +2296,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>127</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2321,13 +2310,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
         <v>129</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2335,13 +2324,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
         <v>131</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2349,18 +2338,18 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>133</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2368,13 +2357,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
         <v>136</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2382,13 +2371,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
         <v>138</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2396,13 +2385,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
         <v>140</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2410,13 +2399,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
         <v>142</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2440,10 +2429,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2451,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2459,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2467,7 +2456,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2475,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -2486,7 +2475,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2508,13 +2497,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>149</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2522,18 +2511,18 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>151</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2555,13 +2544,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2569,13 +2558,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>156</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2583,13 +2572,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
         <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2597,13 +2586,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>160</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2611,13 +2600,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
         <v>162</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>163</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2625,13 +2614,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
         <v>165</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2639,13 +2628,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>167</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2653,18 +2642,18 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
         <v>169</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2686,13 +2675,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
         <v>172</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2700,13 +2689,13 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
         <v>174</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2714,18 +2703,18 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>176</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2747,13 +2736,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
         <v>179</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2761,13 +2750,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
         <v>181</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2775,13 +2764,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
         <v>183</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2789,13 +2778,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
         <v>185</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2803,13 +2792,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
         <v>187</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2817,13 +2806,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
         <v>189</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2831,13 +2820,13 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
         <v>191</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2845,13 +2834,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>193</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2859,13 +2848,13 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
         <v>195</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2873,13 +2862,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
         <v>197</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2887,18 +2876,18 @@
         <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
         <v>199</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2906,7 +2895,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -2920,13 +2909,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
         <v>203</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2934,13 +2923,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
         <v>205</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2948,13 +2937,13 @@
         <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
         <v>207</v>
-      </c>
-      <c r="C43" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2962,13 +2951,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
         <v>209</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2995,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3003,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3011,7 +3000,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3019,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -3030,12 +3019,12 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3043,7 +3032,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
